--- a/biology/Botanique/Calypsoae/Calypsoae.xlsx
+++ b/biology/Botanique/Calypsoae/Calypsoae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La tribu des Calypsoeae est une tribu de la sous-famille des Epidendroideae, famille des Orchidaceae.
 </t>
@@ -511,42 +523,44 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (24 Nov 2010)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (24 Nov 2010) :
 genre Agrostophyllum
 genre Ancistrochilus
-genre Anthogonium (Tribu Arethuseae selon GRIN)[2]
+genre Anthogonium (Tribu Arethuseae selon GRIN)
 genre Aplectrum
-genre Basiphyllaea (Tribu Epidendreae selon GRIN)[3]
-genre Bletia (Tribu Epidendreae selon GRIN)[4]
+genre Basiphyllaea (Tribu Epidendreae selon GRIN)
+genre Bletia (Tribu Epidendreae selon GRIN)
 genre Calypso
 genre Cephalantheropsis
 sous-tribu Chysinae
-genre Chysis (Tribu Epidendreae selon GRIN)[5]
+genre Chysis (Tribu Epidendreae selon GRIN)
 genre Corallorhiza
 genre Cremastra
 genre Earina
 genre Govenia
-genre Hexalectris (Tribu Epidendreae selon GRIN)[6]
+genre Hexalectris (Tribu Epidendreae selon GRIN)
 genre Nephelaphyllum
 genre Oreorchis
 genre Plocoglottis
 genre Spathoglottis
 genre Tainia
 genre Tipularia
-Selon GRIN            (24 Nov 2010)[7] :
+Selon GRIN            (24 Nov 2010) :
 genre Aplectrum
 genre Calypso
-genre Coelia (Tribu Epidendreae,sous-tribu Coeliinae selon NCBI)[8]
+genre Coelia (Tribu Epidendreae,sous-tribu Coeliinae selon NCBI)
 genre Corallorhiza
 genre Cremastra
-genre Dactylostalix (Absent dans la base NCBI mais enregistré à l'IPNI[9] et accepté par Kew)[10]
-genre Ephippianthus (Absent dans la base NCBI mais enregistré à l'IPNI[11] et accepté par Kew)[12]
+genre Dactylostalix (Absent dans la base NCBI mais enregistré à l'IPNI et accepté par Kew)
+genre Ephippianthus (Absent dans la base NCBI mais enregistré à l'IPNI et accepté par Kew)
 genre Govenia
 genre Oreorchis
 genre Tipularia
-genre Yoania (Absent dans la base NCBI mais enregistré à l'IPNI[13] et accepté par Kew)[14] </t>
+genre Yoania (Absent dans la base NCBI mais enregistré à l'IPNI et accepté par Kew) </t>
         </is>
       </c>
     </row>
